--- a/data/trans_orig/P62AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD500C0-C295-4916-94CE-971FBC373833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60ACD3AA-3C97-4D20-BDC6-5DCF94B008C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83894FFC-931C-4B3A-9500-D938DB71A5B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B2F2B17-3F55-4C55-8974-64030DC66339}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24F9A1A-DFE0-4BFF-9B32-D5E2D23AD961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A925A40-4B7B-41F8-AEC8-B7FD8D4328CC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1937,7 +1937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A27F1CB-48FB-4938-92A3-D661EABE13DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D1062-1D86-4085-8612-5509979677F5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3242,7 +3242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1A77BC-9649-4BF2-BA66-BD86A77B9E19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E122806-F6AA-4421-864E-F226A8CC4A98}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P62AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60ACD3AA-3C97-4D20-BDC6-5DCF94B008C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF93D8D8-56C4-4735-884A-DA3D478B98D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B2F2B17-3F55-4C55-8974-64030DC66339}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1128A794-B383-4CEC-8468-E5F8FE980C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="63">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 2 en 2007 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -103,10 +103,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>58,71%</t>
@@ -115,7 +115,7 @@
     <t>41,29%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -136,19 +136,19 @@
     <t>42,75%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -163,9 +163,15 @@
     <t>23,52%</t>
   </si>
   <si>
+    <t>74,18%</t>
+  </si>
+  <si>
     <t>76,48%</t>
   </si>
   <si>
+    <t>25,82%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -178,19 +184,19 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>23,68%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>76,32%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2015 (Tasa respuesta: 0,11%)</t>
+    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2016 (Tasa respuesta: 0,11%)</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -205,22 +211,22 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>58,34%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>66,47%</t>
+    <t>65,93%</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A925A40-4B7B-41F8-AEC8-B7FD8D4328CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98ED70C-ED80-461A-9AE2-84B2C982AC2B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1937,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D1062-1D86-4085-8612-5509979677F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B1F5CA-2AE1-4995-AE21-EF9C32B684A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2460,7 +2466,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2475,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,10 +2509,10 @@
         <v>3307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>17</v>
@@ -2518,10 +2524,10 @@
         <v>3307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>17</v>
@@ -2558,7 +2564,7 @@
         <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2573,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,7 +2862,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2871,7 +2877,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,7 +2908,7 @@
         <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>20</v>
@@ -2917,7 +2923,7 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>20</v>
@@ -2954,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2969,7 +2975,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3054,13 @@
         <v>1017</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3063,13 +3069,13 @@
         <v>1017</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,10 +3103,10 @@
         <v>16718</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>17</v>
@@ -3112,10 +3118,10 @@
         <v>16718</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>17</v>
@@ -3152,7 +3158,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3167,7 +3173,7 @@
         <v>13</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,7 +3248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E122806-F6AA-4421-864E-F226A8CC4A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25EECF4-2805-4027-93D3-EB54D97E893F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3259,7 +3265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3781,7 +3787,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3796,7 +3802,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3830,7 @@
         <v>2095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -3839,7 +3845,7 @@
         <v>2095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
@@ -3873,7 +3879,7 @@
         <v>884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
@@ -3888,7 +3894,7 @@
         <v>884</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
@@ -4369,13 +4375,13 @@
         <v>968</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -4384,13 +4390,13 @@
         <v>968</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4424,13 @@
         <v>4818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4433,13 +4439,13 @@
         <v>4818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4473,13 @@
         <v>1853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4482,13 +4488,13 @@
         <v>1853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
